--- a/lib_testcase/com.aislend.MyAccount.xlsx
+++ b/lib_testcase/com.aislend.MyAccount.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Akash\aislend\CityMarket\lib_testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="7905" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Scenario_MyAccount" sheetId="2" r:id="rId1"/>
-    <sheet name="TC_MyAccount" sheetId="3" r:id="rId2"/>
-    <sheet name="TC_MyAccount2" sheetId="1" r:id="rId3"/>
+    <sheet name="Scenario_MyAccount" r:id="rId1" sheetId="2"/>
+    <sheet name="TC_MyAccount" r:id="rId2" sheetId="3"/>
+    <sheet name="TC_MyAccount2" r:id="rId3" sheetId="1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="381">
   <si>
     <t>Action</t>
   </si>
@@ -1043,12 +1043,139 @@
   </si>
   <si>
     <t>text mismatch: Randomemailid</t>
+  </si>
+  <si>
+    <t>VerifyTitle: City Marketplace</t>
+  </si>
+  <si>
+    <t>VerifyElement: null</t>
+  </si>
+  <si>
+    <t>Click: null</t>
+  </si>
+  <si>
+    <t>SetText: Randomemailid</t>
+  </si>
+  <si>
+    <t>SetText: 123456</t>
+  </si>
+  <si>
+    <t>VerifyText: Akash Sangal</t>
+  </si>
+  <si>
+    <t>VerifyTitle: My Account</t>
+  </si>
+  <si>
+    <t>VerifyMyAccountMenu: Account Dashboard</t>
+  </si>
+  <si>
+    <t>VerifyText: Account Dashboard</t>
+  </si>
+  <si>
+    <t>VerifyText: Account Information</t>
+  </si>
+  <si>
+    <t>VerifyText: Contact Information</t>
+  </si>
+  <si>
+    <t>VerifyText: Randomemailid</t>
+  </si>
+  <si>
+    <t>VerifyText: Edit</t>
+  </si>
+  <si>
+    <t>VerifyText: Change Password</t>
+  </si>
+  <si>
+    <t>VerifyText: Address Book</t>
+  </si>
+  <si>
+    <t>VerifyText: Manage Addresses</t>
+  </si>
+  <si>
+    <t>VerifyText: Default Billing Address</t>
+  </si>
+  <si>
+    <t>VerifyText: Edit Address</t>
+  </si>
+  <si>
+    <t>VerifyMyAccountMenu: Address Book</t>
+  </si>
+  <si>
+    <t>SelectMyAccountTab: Address Book</t>
+  </si>
+  <si>
+    <t>VerifyText: Add New Address</t>
+  </si>
+  <si>
+    <t>VerifyMyAccountMenu: Account Information</t>
+  </si>
+  <si>
+    <t>SelectMyAccountTab: Account Information</t>
+  </si>
+  <si>
+    <t>VerifyText: Edit Account Information</t>
+  </si>
+  <si>
+    <t>VerifyMyAccountMenu: My Saved Cards</t>
+  </si>
+  <si>
+    <t>SelectMyAccountTab: My Saved Cards</t>
+  </si>
+  <si>
+    <t>VerifyText: My Saved Cards</t>
+  </si>
+  <si>
+    <t>VerifyText: You do not have any saved cards yet.</t>
+  </si>
+  <si>
+    <t>VerifyText: Add a new saved card</t>
+  </si>
+  <si>
+    <t>VerifyText: You must first add a full billing address before you can add saved cards.</t>
+  </si>
+  <si>
+    <t>VerifyMyAccountMenu: My Wish List</t>
+  </si>
+  <si>
+    <t>SelectMyAccountTab: My Wish List</t>
+  </si>
+  <si>
+    <t>VerifyText: My Wish List</t>
+  </si>
+  <si>
+    <t>VerifyText: You have no items in your wish list.</t>
+  </si>
+  <si>
+    <t>SelectMyAccountTab: Account Dashboard</t>
+  </si>
+  <si>
+    <t>SetText: demo</t>
+  </si>
+  <si>
+    <t>SetText: Sangal</t>
+  </si>
+  <si>
+    <t>VerifyText: demo Sangal</t>
+  </si>
+  <si>
+    <t>SetText: Akash</t>
+  </si>
+  <si>
+    <t>Click: Change Password</t>
+  </si>
+  <si>
+    <t>SetText: 1234567</t>
+  </si>
+  <si>
+    <t>Wait: 6000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1191,55 +1318,55 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
@@ -1266,10 +1393,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
+    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
+      <tableStyleElement dxfId="1" type="wholeTable"/>
+      <tableStyleElement dxfId="0" type="headerRow"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1288,10 +1415,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1326,7 +1453,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1361,7 +1488,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1455,21 +1582,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1486,7 +1613,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1538,14 +1665,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -1554,13 +1681,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.42578125" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.140625" style="5" collapsed="1"/>
-    <col min="6" max="6" width="49.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="60.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="13.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="36.42578125" collapsed="true"/>
+    <col min="5" max="5" style="5" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="49.85546875" collapsed="true"/>
+    <col min="7" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1750,35 +1877,35 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="O91" sqref="O2:O91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="10" width="23.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="44.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="6" max="10" customWidth="true" style="1" width="23.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
+    <col min="16" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="30">
+    <row customFormat="1" ht="30" r="1" s="2" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1825,7 +1952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30">
+    <row ht="30" r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1850,7 +1977,7 @@
         <v>72</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>336</v>
@@ -1862,7 +1989,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30">
+    <row ht="30" r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1889,7 +2016,7 @@
         <v>73</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>21</v>
@@ -1901,7 +2028,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30">
+    <row ht="30" r="4" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1928,7 +2055,7 @@
         <v>74</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>69</v>
+        <v>341</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>21</v>
@@ -1940,7 +2067,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="45">
+    <row ht="45" r="5" spans="1:15">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1967,7 +2094,7 @@
         <v>75</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>21</v>
@@ -1979,7 +2106,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30">
+    <row ht="30" r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -2012,7 +2139,7 @@
         <v>78</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>21</v>
@@ -2024,7 +2151,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30">
+    <row ht="30" r="7" spans="1:15">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -2053,7 +2180,7 @@
         <v>77</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>71</v>
+        <v>343</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>21</v>
@@ -2065,7 +2192,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30">
+    <row ht="30" r="8" spans="1:15">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -2092,7 +2219,7 @@
         <v>76</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>69</v>
+        <v>341</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>21</v>
@@ -2104,7 +2231,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="45">
+    <row ht="45" r="9" spans="1:15">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -2133,7 +2260,7 @@
         <v>79</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>98</v>
+        <v>344</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>21</v>
@@ -2145,7 +2272,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="45">
+    <row ht="45" r="10" spans="1:15">
       <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
@@ -2172,7 +2299,7 @@
         <v>105</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>69</v>
+        <v>341</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>21</v>
@@ -2184,7 +2311,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="45">
+    <row ht="45" r="11" spans="1:15">
       <c r="A11" s="4" t="s">
         <v>46</v>
       </c>
@@ -2211,7 +2338,7 @@
         <v>106</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>21</v>
@@ -2223,7 +2350,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="30">
+    <row ht="30" r="12" spans="1:15">
       <c r="A12" s="4" t="s">
         <v>46</v>
       </c>
@@ -2250,7 +2377,7 @@
         <v>88</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>69</v>
+        <v>341</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>21</v>
@@ -2262,7 +2389,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="30">
+    <row ht="30" r="13" spans="1:15">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -2287,7 +2414,7 @@
         <v>113</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>146</v>
+        <v>345</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>21</v>
@@ -2299,7 +2426,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="45">
+    <row ht="45" r="14" spans="1:15">
       <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
@@ -2328,7 +2455,7 @@
         <v>134</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>147</v>
+        <v>346</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>21</v>
@@ -2340,7 +2467,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="45">
+    <row ht="45" r="15" spans="1:15">
       <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
@@ -2369,7 +2496,7 @@
         <v>112</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>21</v>
@@ -2381,7 +2508,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="60">
+    <row ht="60" r="16" spans="1:15">
       <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
@@ -2410,7 +2537,7 @@
         <v>115</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>21</v>
@@ -2422,7 +2549,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="45">
+    <row ht="45" r="17" spans="1:15">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -2451,7 +2578,7 @@
         <v>117</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>21</v>
@@ -2463,7 +2590,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="45">
+    <row ht="45" r="18" spans="1:15">
       <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
@@ -2492,7 +2619,7 @@
         <v>120</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>98</v>
+        <v>344</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>21</v>
@@ -2504,7 +2631,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="45">
+    <row ht="45" r="19" spans="1:15">
       <c r="A19" s="4" t="s">
         <v>47</v>
       </c>
@@ -2537,7 +2664,7 @@
         <v>122</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>336</v>
@@ -2549,7 +2676,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="45">
+    <row ht="45" r="20" spans="1:15">
       <c r="A20" s="4" t="s">
         <v>47</v>
       </c>
@@ -2578,7 +2705,7 @@
         <v>126</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>21</v>
@@ -2590,7 +2717,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="45">
+    <row ht="45" r="21" spans="1:15">
       <c r="A21" s="4" t="s">
         <v>47</v>
       </c>
@@ -2619,7 +2746,7 @@
         <v>129</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>21</v>
@@ -2631,7 +2758,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="90">
+    <row ht="90" r="22" spans="1:15">
       <c r="A22" s="4" t="s">
         <v>47</v>
       </c>
@@ -2660,7 +2787,7 @@
         <v>154</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>173</v>
+        <v>353</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>21</v>
@@ -2672,7 +2799,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="120">
+    <row ht="120" r="23" spans="1:15">
       <c r="A23" s="4" t="s">
         <v>47</v>
       </c>
@@ -2701,7 +2828,7 @@
         <v>172</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>174</v>
+        <v>354</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>21</v>
@@ -2713,7 +2840,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="45">
+    <row ht="45" r="24" spans="1:15">
       <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
@@ -2742,7 +2869,7 @@
         <v>157</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>175</v>
+        <v>355</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>21</v>
@@ -2754,7 +2881,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="60">
+    <row ht="60" r="25" spans="1:15">
       <c r="A25" s="4" t="s">
         <v>47</v>
       </c>
@@ -2783,7 +2910,7 @@
         <v>162</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>176</v>
+        <v>356</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>21</v>
@@ -2795,7 +2922,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="60">
+    <row ht="60" r="26" spans="1:15">
       <c r="A26" s="4" t="s">
         <v>47</v>
       </c>
@@ -2824,7 +2951,7 @@
         <v>164</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>176</v>
+        <v>356</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>21</v>
@@ -2836,7 +2963,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="45">
+    <row ht="45" r="27" spans="1:15">
       <c r="A27" s="4" t="s">
         <v>47</v>
       </c>
@@ -2865,7 +2992,7 @@
         <v>139</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>147</v>
+        <v>357</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>21</v>
@@ -2877,7 +3004,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="45">
+    <row ht="45" r="28" spans="1:15">
       <c r="A28" s="4" t="s">
         <v>47</v>
       </c>
@@ -2906,7 +3033,7 @@
         <v>94</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>241</v>
+        <v>358</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>21</v>
@@ -2918,7 +3045,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="45">
+    <row ht="45" r="29" spans="1:15">
       <c r="A29" s="4" t="s">
         <v>47</v>
       </c>
@@ -2947,7 +3074,7 @@
         <v>180</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>221</v>
+        <v>359</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>21</v>
@@ -2959,7 +3086,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="45">
+    <row ht="45" r="30" spans="1:15">
       <c r="A30" s="4" t="s">
         <v>47</v>
       </c>
@@ -2986,7 +3113,7 @@
         <v>193</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>21</v>
@@ -2998,7 +3125,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="30">
+    <row ht="30" r="31" spans="1:15">
       <c r="A31" s="4" t="s">
         <v>47</v>
       </c>
@@ -3025,7 +3152,7 @@
         <v>194</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>21</v>
@@ -3037,7 +3164,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="45">
+    <row ht="45" r="32" spans="1:15">
       <c r="A32" s="4" t="s">
         <v>47</v>
       </c>
@@ -3064,7 +3191,7 @@
         <v>195</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>21</v>
@@ -3076,7 +3203,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="30">
+    <row ht="30" r="33" spans="1:15">
       <c r="A33" s="4" t="s">
         <v>47</v>
       </c>
@@ -3103,7 +3230,7 @@
         <v>196</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>21</v>
@@ -3115,7 +3242,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="30">
+    <row ht="30" r="34" spans="1:15">
       <c r="A34" s="4" t="s">
         <v>47</v>
       </c>
@@ -3142,7 +3269,7 @@
         <v>197</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>21</v>
@@ -3154,7 +3281,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="30">
+    <row ht="30" r="35" spans="1:15">
       <c r="A35" s="4" t="s">
         <v>47</v>
       </c>
@@ -3181,7 +3308,7 @@
         <v>200</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>21</v>
@@ -3193,7 +3320,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="45">
+    <row ht="45" r="36" spans="1:15">
       <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
@@ -3220,7 +3347,7 @@
         <v>203</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>21</v>
@@ -3232,7 +3359,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="30">
+    <row ht="30" r="37" spans="1:15">
       <c r="A37" s="4" t="s">
         <v>47</v>
       </c>
@@ -3259,7 +3386,7 @@
         <v>206</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>21</v>
@@ -3271,7 +3398,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="30">
+    <row ht="30" r="38" spans="1:15">
       <c r="A38" s="4" t="s">
         <v>47</v>
       </c>
@@ -3298,7 +3425,7 @@
         <v>208</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>21</v>
@@ -3310,7 +3437,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="45">
+    <row ht="45" r="39" spans="1:15">
       <c r="A39" s="4" t="s">
         <v>47</v>
       </c>
@@ -3337,7 +3464,7 @@
         <v>211</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>21</v>
@@ -3349,7 +3476,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="45">
+    <row ht="45" r="40" spans="1:15">
       <c r="A40" s="4" t="s">
         <v>47</v>
       </c>
@@ -3378,7 +3505,7 @@
         <v>138</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>147</v>
+        <v>360</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>21</v>
@@ -3390,7 +3517,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="45">
+    <row ht="45" r="41" spans="1:15">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
@@ -3419,7 +3546,7 @@
         <v>94</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>241</v>
+        <v>361</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>21</v>
@@ -3431,7 +3558,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="45">
+    <row ht="45" r="42" spans="1:15">
       <c r="A42" s="4" t="s">
         <v>47</v>
       </c>
@@ -3460,7 +3587,7 @@
         <v>232</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>240</v>
+        <v>362</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>21</v>
@@ -3472,7 +3599,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="45">
+    <row ht="45" r="43" spans="1:15">
       <c r="A43" s="4" t="s">
         <v>47</v>
       </c>
@@ -3499,7 +3626,7 @@
         <v>193</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>21</v>
@@ -3511,7 +3638,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="30">
+    <row ht="30" r="44" spans="1:15">
       <c r="A44" s="4" t="s">
         <v>47</v>
       </c>
@@ -3538,7 +3665,7 @@
         <v>194</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>21</v>
@@ -3550,7 +3677,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="30">
+    <row ht="30" r="45" spans="1:15">
       <c r="A45" s="4" t="s">
         <v>47</v>
       </c>
@@ -3577,7 +3704,7 @@
         <v>235</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>21</v>
@@ -3589,7 +3716,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="45">
+    <row ht="45" r="46" spans="1:15">
       <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
@@ -3616,7 +3743,7 @@
         <v>238</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>21</v>
@@ -3628,7 +3755,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="45">
+    <row ht="45" r="47" spans="1:15">
       <c r="A47" s="4" t="s">
         <v>47</v>
       </c>
@@ -3655,7 +3782,7 @@
         <v>211</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>21</v>
@@ -3667,7 +3794,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="45">
+    <row ht="45" r="48" spans="1:15">
       <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
@@ -3696,7 +3823,7 @@
         <v>141</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>147</v>
+        <v>363</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>21</v>
@@ -3708,7 +3835,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="45">
+    <row ht="45" r="49" spans="1:15">
       <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
@@ -3737,7 +3864,7 @@
         <v>245</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>241</v>
+        <v>364</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>21</v>
@@ -3749,7 +3876,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="45">
+    <row ht="45" r="50" spans="1:15">
       <c r="A50" s="4" t="s">
         <v>47</v>
       </c>
@@ -3778,7 +3905,7 @@
         <v>252</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>265</v>
+        <v>365</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>21</v>
@@ -3790,7 +3917,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="60">
+    <row ht="60" r="51" spans="1:15">
       <c r="A51" s="4" t="s">
         <v>47</v>
       </c>
@@ -3819,7 +3946,7 @@
         <v>253</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>266</v>
+        <v>366</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>21</v>
@@ -3831,7 +3958,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="45">
+    <row ht="45" r="52" spans="1:15">
       <c r="A52" s="4" t="s">
         <v>47</v>
       </c>
@@ -3860,7 +3987,7 @@
         <v>256</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>267</v>
+        <v>367</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>21</v>
@@ -3872,7 +3999,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="75">
+    <row ht="75" r="53" spans="1:15">
       <c r="A53" s="4" t="s">
         <v>47</v>
       </c>
@@ -3901,7 +4028,7 @@
         <v>261</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>268</v>
+        <v>368</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>21</v>
@@ -3913,7 +4040,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="45">
+    <row ht="45" r="54" spans="1:15">
       <c r="A54" s="4" t="s">
         <v>47</v>
       </c>
@@ -3942,7 +4069,7 @@
         <v>143</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>147</v>
+        <v>369</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>21</v>
@@ -3954,7 +4081,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="45">
+    <row ht="45" r="55" spans="1:15">
       <c r="A55" s="4" t="s">
         <v>47</v>
       </c>
@@ -3983,7 +4110,7 @@
         <v>269</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>241</v>
+        <v>370</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>21</v>
@@ -3995,7 +4122,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="45">
+    <row ht="45" r="56" spans="1:15">
       <c r="A56" s="4" t="s">
         <v>47</v>
       </c>
@@ -4024,7 +4151,7 @@
         <v>273</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>280</v>
+        <v>371</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>21</v>
@@ -4036,7 +4163,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="60">
+    <row ht="60" r="57" spans="1:15">
       <c r="A57" s="4" t="s">
         <v>47</v>
       </c>
@@ -4065,7 +4192,7 @@
         <v>278</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>281</v>
+        <v>372</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>21</v>
@@ -4077,7 +4204,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="45">
+    <row ht="45" r="58" spans="1:15">
       <c r="A58" s="4" t="s">
         <v>48</v>
       </c>
@@ -4106,7 +4233,7 @@
         <v>269</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>241</v>
+        <v>373</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>21</v>
@@ -4118,7 +4245,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="45">
+    <row ht="45" r="59" spans="1:15">
       <c r="A59" s="4" t="s">
         <v>48</v>
       </c>
@@ -4145,7 +4272,7 @@
         <v>284</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>69</v>
+        <v>341</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>21</v>
@@ -4157,7 +4284,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="30">
+    <row ht="30" r="60" spans="1:15">
       <c r="A60" s="4" t="s">
         <v>48</v>
       </c>
@@ -4186,7 +4313,7 @@
         <v>290</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>296</v>
+        <v>374</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>21</v>
@@ -4198,7 +4325,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="30">
+    <row ht="30" r="61" spans="1:15">
       <c r="A61" s="4" t="s">
         <v>48</v>
       </c>
@@ -4227,7 +4354,7 @@
         <v>288</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>297</v>
+        <v>375</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>21</v>
@@ -4239,7 +4366,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="45">
+    <row ht="45" r="62" spans="1:15">
       <c r="A62" s="4" t="s">
         <v>48</v>
       </c>
@@ -4266,7 +4393,7 @@
         <v>292</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>69</v>
+        <v>341</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>21</v>
@@ -4278,7 +4405,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="45">
+    <row ht="45" r="63" spans="1:15">
       <c r="A63" s="4" t="s">
         <v>48</v>
       </c>
@@ -4307,7 +4434,7 @@
         <v>295</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>298</v>
+        <v>376</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>21</v>
@@ -4319,7 +4446,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="45">
+    <row ht="45" r="64" spans="1:15">
       <c r="A64" s="4" t="s">
         <v>48</v>
       </c>
@@ -4348,7 +4475,7 @@
         <v>301</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>298</v>
+        <v>376</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>21</v>
@@ -4360,7 +4487,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="45">
+    <row ht="45" r="65" spans="1:15">
       <c r="A65" s="4" t="s">
         <v>48</v>
       </c>
@@ -4387,7 +4514,7 @@
         <v>284</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>69</v>
+        <v>341</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>21</v>
@@ -4399,7 +4526,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="30">
+    <row ht="30" r="66" spans="1:15">
       <c r="A66" s="4" t="s">
         <v>48</v>
       </c>
@@ -4428,7 +4555,7 @@
         <v>290</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>299</v>
+        <v>377</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>21</v>
@@ -4440,7 +4567,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="30">
+    <row ht="30" r="67" spans="1:15">
       <c r="A67" s="4" t="s">
         <v>48</v>
       </c>
@@ -4469,7 +4596,7 @@
         <v>288</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>297</v>
+        <v>375</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>21</v>
@@ -4481,7 +4608,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="45">
+    <row ht="45" r="68" spans="1:15">
       <c r="A68" s="4" t="s">
         <v>48</v>
       </c>
@@ -4508,7 +4635,7 @@
         <v>292</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>69</v>
+        <v>341</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>21</v>
@@ -4520,7 +4647,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="45">
+    <row ht="45" r="69" spans="1:15">
       <c r="A69" s="4" t="s">
         <v>48</v>
       </c>
@@ -4549,7 +4676,7 @@
         <v>295</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>98</v>
+        <v>344</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>21</v>
@@ -4561,7 +4688,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="45">
+    <row ht="45" r="70" spans="1:15">
       <c r="A70" s="4" t="s">
         <v>49</v>
       </c>
@@ -4590,7 +4717,7 @@
         <v>303</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>69</v>
+        <v>378</v>
       </c>
       <c r="M70" s="4" t="s">
         <v>21</v>
@@ -4602,7 +4729,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="30">
+    <row ht="30" r="71" spans="1:15">
       <c r="A71" s="4" t="s">
         <v>49</v>
       </c>
@@ -4631,7 +4758,7 @@
         <v>320</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>71</v>
+        <v>343</v>
       </c>
       <c r="M71" s="4" t="s">
         <v>21</v>
@@ -4643,7 +4770,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="30">
+    <row ht="30" r="72" spans="1:15">
       <c r="A72" s="4" t="s">
         <v>49</v>
       </c>
@@ -4672,7 +4799,7 @@
         <v>321</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="M72" s="4" t="s">
         <v>21</v>
@@ -4684,7 +4811,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="30">
+    <row ht="30" r="73" spans="1:15">
       <c r="A73" s="4" t="s">
         <v>49</v>
       </c>
@@ -4713,7 +4840,7 @@
         <v>322</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="M73" s="4" t="s">
         <v>21</v>
@@ -4725,7 +4852,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="45">
+    <row ht="45" r="74" spans="1:15">
       <c r="A74" s="4" t="s">
         <v>49</v>
       </c>
@@ -4752,7 +4879,7 @@
         <v>292</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>69</v>
+        <v>341</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>21</v>
@@ -4764,7 +4891,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="30">
+    <row ht="30" r="75" spans="1:15">
       <c r="A75" s="4" t="s">
         <v>49</v>
       </c>
@@ -4791,7 +4918,7 @@
         <v>313</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>69</v>
+        <v>341</v>
       </c>
       <c r="M75" s="4" t="s">
         <v>21</v>
@@ -4803,7 +4930,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="30">
+    <row ht="30" r="76" spans="1:15">
       <c r="A76" s="4" t="s">
         <v>49</v>
       </c>
@@ -4830,7 +4957,7 @@
         <v>316</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>69</v>
+        <v>341</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>21</v>
@@ -4842,7 +4969,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="30">
+    <row ht="30" r="77" spans="1:15">
       <c r="A77" s="4" t="s">
         <v>49</v>
       </c>
@@ -4867,7 +4994,7 @@
         <v>323</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>325</v>
+        <v>380</v>
       </c>
       <c r="M77" s="4" t="s">
         <v>21</v>
@@ -4879,7 +5006,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="30">
+    <row ht="30" r="78" spans="1:15">
       <c r="A78" s="4" t="s">
         <v>49</v>
       </c>
@@ -4906,7 +5033,7 @@
         <v>74</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>69</v>
+        <v>341</v>
       </c>
       <c r="M78" s="4" t="s">
         <v>21</v>
@@ -4918,7 +5045,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="45">
+    <row ht="45" r="79" spans="1:15">
       <c r="A79" s="4" t="s">
         <v>49</v>
       </c>
@@ -4945,7 +5072,7 @@
         <v>75</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="M79" s="4" t="s">
         <v>21</v>
@@ -4957,7 +5084,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="30">
+    <row ht="30" r="80" spans="1:15">
       <c r="A80" s="4" t="s">
         <v>49</v>
       </c>
@@ -4990,7 +5117,7 @@
         <v>78</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="M80" s="4" t="s">
         <v>21</v>
@@ -5002,7 +5129,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="30">
+    <row ht="30" r="81" spans="1:15">
       <c r="A81" s="4" t="s">
         <v>49</v>
       </c>
@@ -5031,7 +5158,7 @@
         <v>77</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>21</v>
@@ -5043,7 +5170,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="30">
+    <row ht="30" r="82" spans="1:15">
       <c r="A82" s="4" t="s">
         <v>49</v>
       </c>
@@ -5070,7 +5197,7 @@
         <v>76</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>69</v>
+        <v>341</v>
       </c>
       <c r="M82" s="4" t="s">
         <v>21</v>
@@ -5082,7 +5209,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="45">
+    <row ht="45" r="83" spans="1:15">
       <c r="A83" s="4" t="s">
         <v>49</v>
       </c>
@@ -5111,7 +5238,7 @@
         <v>79</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>98</v>
+        <v>344</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>21</v>
@@ -5123,7 +5250,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="45">
+    <row ht="45" r="84" spans="1:15">
       <c r="A84" s="4" t="s">
         <v>49</v>
       </c>
@@ -5150,7 +5277,7 @@
         <v>105</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>69</v>
+        <v>341</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>21</v>
@@ -5162,7 +5289,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="45">
+    <row ht="45" r="85" spans="1:15">
       <c r="A85" s="4" t="s">
         <v>49</v>
       </c>
@@ -5189,7 +5316,7 @@
         <v>106</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="M85" s="4" t="s">
         <v>21</v>
@@ -5201,7 +5328,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="30">
+    <row ht="30" r="86" spans="1:15">
       <c r="A86" s="4" t="s">
         <v>49</v>
       </c>
@@ -5228,7 +5355,7 @@
         <v>88</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>69</v>
+        <v>341</v>
       </c>
       <c r="M86" s="4" t="s">
         <v>21</v>
@@ -5240,7 +5367,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="45">
+    <row ht="45" r="87" spans="1:15">
       <c r="A87" s="4" t="s">
         <v>49</v>
       </c>
@@ -5269,7 +5396,7 @@
         <v>303</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>69</v>
+        <v>378</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>21</v>
@@ -5281,7 +5408,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="30">
+    <row ht="30" r="88" spans="1:15">
       <c r="A88" s="4" t="s">
         <v>49</v>
       </c>
@@ -5310,7 +5437,7 @@
         <v>320</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="M88" s="4" t="s">
         <v>21</v>
@@ -5322,7 +5449,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="30">
+    <row ht="30" r="89" spans="1:15">
       <c r="A89" s="4" t="s">
         <v>49</v>
       </c>
@@ -5351,7 +5478,7 @@
         <v>321</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>71</v>
+        <v>343</v>
       </c>
       <c r="M89" s="4" t="s">
         <v>21</v>
@@ -5363,7 +5490,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="30">
+    <row ht="30" r="90" spans="1:15">
       <c r="A90" s="4" t="s">
         <v>49</v>
       </c>
@@ -5392,7 +5519,7 @@
         <v>322</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>71</v>
+        <v>343</v>
       </c>
       <c r="M90" s="4" t="s">
         <v>21</v>
@@ -5404,7 +5531,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="45">
+    <row ht="45" r="91" spans="1:15">
       <c r="A91" s="4" t="s">
         <v>49</v>
       </c>
@@ -5431,7 +5558,7 @@
         <v>292</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>69</v>
+        <v>341</v>
       </c>
       <c r="M91" s="4" t="s">
         <v>21</v>
@@ -5445,39 +5572,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1"/>
-    <hyperlink ref="H19" r:id="rId2"/>
-    <hyperlink ref="H80" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="H6"/>
+    <hyperlink r:id="rId2" ref="H19"/>
+    <hyperlink r:id="rId3" ref="H80"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
       <selection activeCell="A15" sqref="A15:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="10" width="23.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="44.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="6" max="10" customWidth="true" style="1" width="23.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
+    <col min="16" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="30">
+    <row customFormat="1" ht="30" r="1" s="2" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -5524,7 +5651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30">
+    <row ht="30" r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -5561,7 +5688,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30">
+    <row ht="30" r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -5600,7 +5727,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30">
+    <row ht="30" r="4" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -5639,7 +5766,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="45">
+    <row ht="45" r="5" spans="1:15">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -5678,7 +5805,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="45">
+    <row ht="45" r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -5723,7 +5850,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30">
+    <row ht="30" r="7" spans="1:15">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -5764,7 +5891,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30">
+    <row ht="30" r="8" spans="1:15">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -5803,7 +5930,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="45">
+    <row ht="45" r="9" spans="1:15">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -5844,7 +5971,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="45">
+    <row ht="45" r="10" spans="1:15">
       <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
@@ -5883,7 +6010,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="45">
+    <row ht="45" r="11" spans="1:15">
       <c r="A11" s="4" t="s">
         <v>46</v>
       </c>
@@ -5922,7 +6049,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="30">
+    <row ht="30" r="12" spans="1:15">
       <c r="A12" s="4" t="s">
         <v>46</v>
       </c>
@@ -5961,7 +6088,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="30">
+    <row ht="30" r="13" spans="1:15">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -5998,7 +6125,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="45">
+    <row ht="45" r="14" spans="1:15">
       <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
@@ -6039,7 +6166,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="45">
+    <row ht="45" r="15" spans="1:15">
       <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
@@ -6074,7 +6201,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="45">
+    <row ht="45" r="16" spans="1:15">
       <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
@@ -6115,7 +6242,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="45">
+    <row ht="45" r="17" spans="1:15">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -6154,7 +6281,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="30">
+    <row ht="30" r="18" spans="1:15">
       <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
@@ -6193,7 +6320,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="30">
+    <row ht="30" r="19" spans="1:15">
       <c r="A19" s="4" t="s">
         <v>47</v>
       </c>
@@ -6232,7 +6359,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="45">
+    <row ht="45" r="20" spans="1:15">
       <c r="A20" s="4" t="s">
         <v>47</v>
       </c>
@@ -6271,7 +6398,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="45">
+    <row ht="45" r="21" spans="1:15">
       <c r="A21" s="4" t="s">
         <v>47</v>
       </c>
@@ -6312,10 +6439,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1"/>
-    <hyperlink ref="G6" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="H6"/>
+    <hyperlink r:id="rId2" ref="G6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/lib_testcase/com.aislend.MyAccount.xlsx
+++ b/lib_testcase/com.aislend.MyAccount.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="381">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.MyAccount.xlsx
+++ b/lib_testcase/com.aislend.MyAccount.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="381">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.MyAccount.xlsx
+++ b/lib_testcase/com.aislend.MyAccount.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="357">
   <si>
     <t>Action</t>
   </si>
@@ -547,18 +547,6 @@
     <t>Manage Address link should appear on the srceen</t>
   </si>
   <si>
-    <t>text verified: Address Book</t>
-  </si>
-  <si>
-    <t>text verified: Manage Addresses</t>
-  </si>
-  <si>
-    <t>text verified: Default Billing Address</t>
-  </si>
-  <si>
-    <t>text verified: Edit Address</t>
-  </si>
-  <si>
     <t>click on Address Book tab</t>
   </si>
   <si>
@@ -691,9 +679,6 @@
     <t>TC_CityMarket_26</t>
   </si>
   <si>
-    <t>text verified: Add New Address</t>
-  </si>
-  <si>
     <t>TC_CityMarket_27</t>
   </si>
   <si>
@@ -751,9 +736,6 @@
     <t>text verified: Edit Account Information</t>
   </si>
   <si>
-    <t>SelectMyAccountTab Performed succesfully</t>
-  </si>
-  <si>
     <t>TC_CityMarket_40</t>
   </si>
   <si>
@@ -823,18 +805,6 @@
     <t>//fieldset[normalize-space(@class) = 'fieldset payment-method stripe-new cryozonic-stripe']</t>
   </si>
   <si>
-    <t>text verified: My Saved Cards</t>
-  </si>
-  <si>
-    <t>text verified: You do not have any saved cards yet.</t>
-  </si>
-  <si>
-    <t>text verified: Add a new saved card</t>
-  </si>
-  <si>
-    <t>text verified: You must first add a full billing address before you can add saved cards.</t>
-  </si>
-  <si>
     <t>User should navigate to My Wish List tab</t>
   </si>
   <si>
@@ -868,12 +838,6 @@
     <t>wishlist-view-form</t>
   </si>
   <si>
-    <t>text verified: My Wish List</t>
-  </si>
-  <si>
-    <t>text verified: You have no items in your wish list.</t>
-  </si>
-  <si>
     <t>Navigate to Account Dashboard tab</t>
   </si>
   <si>
@@ -916,18 +880,6 @@
     <t>Name should appear on the screen</t>
   </si>
   <si>
-    <t>Text Entered successfully: demo</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: Sangal</t>
-  </si>
-  <si>
-    <t>text verified: demo Sangal</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: Akash</t>
-  </si>
-  <si>
     <t>verify user name on header</t>
   </si>
   <si>
@@ -1003,12 +955,6 @@
     <t>click on save button</t>
   </si>
   <si>
-    <t>Text Entered successfully: 6000</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: 1234567</t>
-  </si>
-  <si>
     <t>verify Menu and it's elements</t>
   </si>
   <si>
@@ -1018,33 +964,9 @@
     <t>change password from account dashboard tab and verify details</t>
   </si>
   <si>
-    <t>text verified: Account Dashboard</t>
-  </si>
-  <si>
-    <t>text verified: Account Information</t>
-  </si>
-  <si>
-    <t>text verified: Contact Information</t>
-  </si>
-  <si>
-    <t>text verified: Edit</t>
-  </si>
-  <si>
-    <t>text verified: Change Password</t>
-  </si>
-  <si>
-    <t>Title verification Failed: City Marketplace</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>Text Entered successfully: Randomemailid</t>
-  </si>
-  <si>
-    <t>text mismatch: Randomemailid</t>
-  </si>
-  <si>
     <t>VerifyTitle: City Marketplace</t>
   </si>
   <si>
@@ -1169,6 +1091,12 @@
   </si>
   <si>
     <t>Wait: 6000</t>
+  </si>
+  <si>
+    <t>City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
+  </si>
+  <si>
+    <t>VerifyTitle: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1722,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1802,7 +1730,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1810,7 +1738,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1865,17 +1793,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1885,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="O91" sqref="O2:O91"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1952,7 +1880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:15">
+    <row ht="60" r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1968,7 +1896,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>40</v>
+        <v>355</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -1977,10 +1905,10 @@
         <v>72</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>336</v>
+        <v>21</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>22</v>
@@ -2016,7 +1944,7 @@
         <v>73</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>21</v>
@@ -2055,7 +1983,7 @@
         <v>74</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>21</v>
@@ -2094,7 +2022,7 @@
         <v>75</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>21</v>
@@ -2139,7 +2067,7 @@
         <v>78</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>21</v>
@@ -2180,7 +2108,7 @@
         <v>77</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>21</v>
@@ -2219,7 +2147,7 @@
         <v>76</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>21</v>
@@ -2248,7 +2176,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>97</v>
@@ -2260,7 +2188,7 @@
         <v>79</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>21</v>
@@ -2299,7 +2227,7 @@
         <v>105</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>21</v>
@@ -2338,7 +2266,7 @@
         <v>106</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>21</v>
@@ -2377,7 +2305,7 @@
         <v>88</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>21</v>
@@ -2414,7 +2342,7 @@
         <v>113</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>21</v>
@@ -2455,7 +2383,7 @@
         <v>134</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>21</v>
@@ -2496,7 +2424,7 @@
         <v>112</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>21</v>
@@ -2537,7 +2465,7 @@
         <v>115</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>21</v>
@@ -2578,7 +2506,7 @@
         <v>117</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>21</v>
@@ -2619,7 +2547,7 @@
         <v>120</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>21</v>
@@ -2664,10 +2592,10 @@
         <v>122</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>22</v>
@@ -2705,7 +2633,7 @@
         <v>126</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>21</v>
@@ -2746,7 +2674,7 @@
         <v>129</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>21</v>
@@ -2787,7 +2715,7 @@
         <v>154</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>21</v>
@@ -2828,7 +2756,7 @@
         <v>172</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>21</v>
@@ -2869,7 +2797,7 @@
         <v>157</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>21</v>
@@ -2910,7 +2838,7 @@
         <v>162</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>21</v>
@@ -2951,7 +2879,7 @@
         <v>164</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>21</v>
@@ -2992,7 +2920,7 @@
         <v>139</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>21</v>
@@ -3012,10 +2940,10 @@
         <v>166</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>20</v>
@@ -3033,7 +2961,7 @@
         <v>94</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>21</v>
@@ -3053,7 +2981,7 @@
         <v>167</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>59</v>
@@ -3062,19 +2990,19 @@
         <v>20</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>21</v>
@@ -3094,7 +3022,7 @@
         <v>168</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>42</v>
@@ -3103,17 +3031,17 @@
         <v>65</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>21</v>
@@ -3130,10 +3058,10 @@
         <v>47</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>42</v>
@@ -3142,17 +3070,17 @@
         <v>65</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>21</v>
@@ -3169,10 +3097,10 @@
         <v>47</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>42</v>
@@ -3181,17 +3109,17 @@
         <v>65</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>21</v>
@@ -3208,10 +3136,10 @@
         <v>47</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>42</v>
@@ -3220,17 +3148,17 @@
         <v>65</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>21</v>
@@ -3247,10 +3175,10 @@
         <v>47</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>42</v>
@@ -3259,17 +3187,17 @@
         <v>65</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>21</v>
@@ -3286,10 +3214,10 @@
         <v>47</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>42</v>
@@ -3298,17 +3226,17 @@
         <v>65</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>21</v>
@@ -3325,10 +3253,10 @@
         <v>47</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>42</v>
@@ -3337,17 +3265,17 @@
         <v>65</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>21</v>
@@ -3364,10 +3292,10 @@
         <v>47</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>42</v>
@@ -3376,17 +3304,17 @@
         <v>65</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>21</v>
@@ -3403,10 +3331,10 @@
         <v>47</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>42</v>
@@ -3415,17 +3343,17 @@
         <v>65</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>21</v>
@@ -3442,10 +3370,10 @@
         <v>47</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>42</v>
@@ -3454,17 +3382,17 @@
         <v>20</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>21</v>
@@ -3481,7 +3409,7 @@
         <v>47</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>137</v>
@@ -3505,7 +3433,7 @@
         <v>138</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>21</v>
@@ -3522,13 +3450,13 @@
         <v>47</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>20</v>
@@ -3546,7 +3474,7 @@
         <v>94</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>21</v>
@@ -3563,10 +3491,10 @@
         <v>47</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>59</v>
@@ -3575,19 +3503,19 @@
         <v>20</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>21</v>
@@ -3604,10 +3532,10 @@
         <v>47</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>42</v>
@@ -3616,17 +3544,17 @@
         <v>65</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>21</v>
@@ -3643,10 +3571,10 @@
         <v>47</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>42</v>
@@ -3655,17 +3583,17 @@
         <v>65</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>21</v>
@@ -3682,10 +3610,10 @@
         <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>42</v>
@@ -3694,17 +3622,17 @@
         <v>65</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>21</v>
@@ -3721,10 +3649,10 @@
         <v>47</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>42</v>
@@ -3733,17 +3661,17 @@
         <v>65</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>21</v>
@@ -3760,10 +3688,10 @@
         <v>47</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>42</v>
@@ -3772,17 +3700,17 @@
         <v>20</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>21</v>
@@ -3799,7 +3727,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>140</v>
@@ -3823,7 +3751,7 @@
         <v>141</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>21</v>
@@ -3840,13 +3768,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>20</v>
@@ -3861,10 +3789,10 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>21</v>
@@ -3881,10 +3809,10 @@
         <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>59</v>
@@ -3893,7 +3821,7 @@
         <v>20</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>91</v>
@@ -3902,10 +3830,10 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>21</v>
@@ -3922,10 +3850,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>59</v>
@@ -3934,19 +3862,19 @@
         <v>20</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>21</v>
@@ -3963,10 +3891,10 @@
         <v>47</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>59</v>
@@ -3975,19 +3903,19 @@
         <v>20</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>21</v>
@@ -4004,10 +3932,10 @@
         <v>47</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>59</v>
@@ -4016,19 +3944,19 @@
         <v>20</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>21</v>
@@ -4045,7 +3973,7 @@
         <v>47</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>142</v>
@@ -4069,7 +3997,7 @@
         <v>143</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>21</v>
@@ -4086,13 +4014,13 @@
         <v>47</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>20</v>
@@ -4107,10 +4035,10 @@
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>21</v>
@@ -4127,10 +4055,10 @@
         <v>47</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>59</v>
@@ -4139,7 +4067,7 @@
         <v>20</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>92</v>
@@ -4148,10 +4076,10 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>21</v>
@@ -4168,10 +4096,10 @@
         <v>47</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>59</v>
@@ -4180,19 +4108,19 @@
         <v>65</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>21</v>
@@ -4212,10 +4140,10 @@
         <v>34</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>20</v>
@@ -4230,10 +4158,10 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>21</v>
@@ -4253,7 +4181,7 @@
         <v>35</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>19</v>
@@ -4269,10 +4197,10 @@
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>21</v>
@@ -4292,7 +4220,7 @@
         <v>36</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>18</v>
@@ -4301,19 +4229,19 @@
         <v>65</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>21</v>
@@ -4333,7 +4261,7 @@
         <v>37</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>18</v>
@@ -4342,19 +4270,19 @@
         <v>65</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>21</v>
@@ -4374,7 +4302,7 @@
         <v>38</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>19</v>
@@ -4383,17 +4311,17 @@
         <v>20</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>21</v>
@@ -4425,16 +4353,16 @@
         <v>119</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>21</v>
@@ -4454,7 +4382,7 @@
         <v>80</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>59</v>
@@ -4466,16 +4394,16 @@
         <v>99</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>21</v>
@@ -4495,7 +4423,7 @@
         <v>81</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>19</v>
@@ -4511,10 +4439,10 @@
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>21</v>
@@ -4534,7 +4462,7 @@
         <v>82</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>18</v>
@@ -4543,19 +4471,19 @@
         <v>65</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>21</v>
@@ -4575,7 +4503,7 @@
         <v>83</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>18</v>
@@ -4584,19 +4512,19 @@
         <v>65</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>21</v>
@@ -4616,7 +4544,7 @@
         <v>84</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>19</v>
@@ -4625,17 +4553,17 @@
         <v>20</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>21</v>
@@ -4673,10 +4601,10 @@
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>21</v>
@@ -4696,7 +4624,7 @@
         <v>34</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>19</v>
@@ -4714,10 +4642,10 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="M70" s="4" t="s">
         <v>21</v>
@@ -4737,7 +4665,7 @@
         <v>35</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>18</v>
@@ -4746,7 +4674,7 @@
         <v>65</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>25</v>
@@ -4755,10 +4683,10 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="M71" s="4" t="s">
         <v>21</v>
@@ -4778,7 +4706,7 @@
         <v>36</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>18</v>
@@ -4787,19 +4715,19 @@
         <v>65</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="M72" s="4" t="s">
         <v>21</v>
@@ -4819,7 +4747,7 @@
         <v>37</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>18</v>
@@ -4828,19 +4756,19 @@
         <v>65</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="M73" s="4" t="s">
         <v>21</v>
@@ -4860,7 +4788,7 @@
         <v>38</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>19</v>
@@ -4869,17 +4797,17 @@
         <v>20</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>21</v>
@@ -4899,7 +4827,7 @@
         <v>39</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>19</v>
@@ -4908,17 +4836,17 @@
         <v>20</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="M75" s="4" t="s">
         <v>21</v>
@@ -4938,7 +4866,7 @@
         <v>80</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>19</v>
@@ -4947,17 +4875,17 @@
         <v>20</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>21</v>
@@ -4969,7 +4897,7 @@
         <v>104</v>
       </c>
     </row>
-    <row ht="30" r="77" spans="1:15">
+    <row r="77" spans="1:15">
       <c r="A77" s="4" t="s">
         <v>49</v>
       </c>
@@ -4977,24 +4905,24 @@
         <v>81</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="M77" s="4" t="s">
         <v>21</v>
@@ -5033,7 +4961,7 @@
         <v>74</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="M78" s="4" t="s">
         <v>21</v>
@@ -5072,7 +5000,7 @@
         <v>75</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="M79" s="4" t="s">
         <v>21</v>
@@ -5117,7 +5045,7 @@
         <v>78</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="M80" s="4" t="s">
         <v>21</v>
@@ -5149,7 +5077,7 @@
         <v>67</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
@@ -5158,7 +5086,7 @@
         <v>77</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>21</v>
@@ -5197,7 +5125,7 @@
         <v>76</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="M82" s="4" t="s">
         <v>21</v>
@@ -5238,7 +5166,7 @@
         <v>79</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>21</v>
@@ -5277,7 +5205,7 @@
         <v>105</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>21</v>
@@ -5316,7 +5244,7 @@
         <v>106</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="M85" s="4" t="s">
         <v>21</v>
@@ -5355,7 +5283,7 @@
         <v>88</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="M86" s="4" t="s">
         <v>21</v>
@@ -5372,10 +5300,10 @@
         <v>49</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>19</v>
@@ -5393,10 +5321,10 @@
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>21</v>
@@ -5413,10 +5341,10 @@
         <v>49</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>18</v>
@@ -5425,19 +5353,19 @@
         <v>65</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="M88" s="4" t="s">
         <v>21</v>
@@ -5454,10 +5382,10 @@
         <v>49</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>18</v>
@@ -5466,7 +5394,7 @@
         <v>65</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>25</v>
@@ -5475,10 +5403,10 @@
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="M89" s="4" t="s">
         <v>21</v>
@@ -5495,10 +5423,10 @@
         <v>49</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>18</v>
@@ -5507,7 +5435,7 @@
         <v>65</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>25</v>
@@ -5516,10 +5444,10 @@
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="M90" s="4" t="s">
         <v>21</v>
@@ -5536,10 +5464,10 @@
         <v>49</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>19</v>
@@ -5548,17 +5476,17 @@
         <v>20</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="M91" s="4" t="s">
         <v>21</v>
@@ -6130,7 +6058,7 @@
         <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>135</v>
@@ -6171,13 +6099,13 @@
         <v>47</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>20</v>
@@ -6206,10 +6134,10 @@
         <v>47</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>59</v>
@@ -6218,19 +6146,19 @@
         <v>20</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>21</v>
@@ -6247,10 +6175,10 @@
         <v>47</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>42</v>
@@ -6259,14 +6187,14 @@
         <v>65</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>43</v>
@@ -6286,10 +6214,10 @@
         <v>47</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>42</v>
@@ -6298,14 +6226,14 @@
         <v>65</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>43</v>
@@ -6325,10 +6253,10 @@
         <v>47</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>42</v>
@@ -6337,14 +6265,14 @@
         <v>65</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>43</v>
@@ -6364,10 +6292,10 @@
         <v>47</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>42</v>
@@ -6376,14 +6304,14 @@
         <v>65</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>43</v>
@@ -6403,10 +6331,10 @@
         <v>47</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>42</v>
@@ -6415,14 +6343,14 @@
         <v>20</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>43</v>

--- a/lib_testcase/com.aislend.MyAccount.xlsx
+++ b/lib_testcase/com.aislend.MyAccount.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="357">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.MyAccount.xlsx
+++ b/lib_testcase/com.aislend.MyAccount.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="357">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.MyAccount.xlsx
+++ b/lib_testcase/com.aislend.MyAccount.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3489" uniqueCount="413">
   <si>
     <t>Action</t>
   </si>
@@ -1097,6 +1097,361 @@
   </si>
   <si>
     <t>VerifyTitle: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
+  </si>
+  <si>
+    <t>City Market Norwalk - Online Grocery Supermarket with Home Delivery: Title not verified</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac</t>
+  </si>
+  <si>
+    <t>action click failed</t>
+  </si>
+  <si>
+    <t>action set text failed: Randomemailid</t>
+  </si>
+  <si>
+    <t>action set text failed: 123456</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.02 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac</t>
+  </si>
+  <si>
+    <t>text not verified: Akash Sangal</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
+  </si>
+  <si>
+    <t>My Account: Title not verified</t>
+  </si>
+  <si>
+    <t>Account Dashboard: VerifyMyAccountMenu</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav items']}</t>
+  </si>
+  <si>
+    <t>text not verified: Account Dashboard</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.02 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//span[normalize-space(@class) = 'base']}</t>
+  </si>
+  <si>
+    <t>text not verified: Account Information</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.02 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-dashboard-info ma__dashboard-info']}</t>
+  </si>
+  <si>
+    <t>text not verified: Contact Information</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.02 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//strong[normalize-space(@class) = 'box-title']}</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'box-content']}</t>
+  </si>
+  <si>
+    <t>text not verified: Randomemailid</t>
+  </si>
+  <si>
+    <t>text not verified: Edit</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.02 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action edit']}</t>
+  </si>
+  <si>
+    <t>text not verified: Change Password</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.02 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action change-password']}</t>
+  </si>
+  <si>
+    <t>text not verified: Address Book</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.02 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-dashboard-addresses ma__dashboard-addresses']}</t>
+  </si>
+  <si>
+    <t>text not verified: Manage Addresses</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-dashboard-addresses ma__dashboard-addresses']//a[normalize-space(@class) = 'action edit']}</t>
+  </si>
+  <si>
+    <t>text not verified: Default Billing Address</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'box box-billing-address']}</t>
+  </si>
+  <si>
+    <t>text not verified: Edit Address</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//a[normalize-space(@data-ui-id) = 'default-billing-edit-link']}</t>
+  </si>
+  <si>
+    <t>Address Book: VerifyMyAccountMenu</t>
+  </si>
+  <si>
+    <t>SelectMyAccountTab not verified</t>
+  </si>
+  <si>
+    <t>text not verified: Add New Address</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//h1[normalize-space(@class) = 'page-title _block heading-1']}</t>
+  </si>
+  <si>
+    <t>Account Information: VerifyMyAccountMenu</t>
+  </si>
+  <si>
+    <t>text not verified: Edit Account Information</t>
+  </si>
+  <si>
+    <t>My Saved Cards: VerifyMyAccountMenu</t>
+  </si>
+  <si>
+    <t>text not verified: My Saved Cards</t>
+  </si>
+  <si>
+    <t>text not verified: You do not have any saved cards yet.</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.02 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'message info empty']}</t>
+  </si>
+  <si>
+    <t>text not verified: Add a new saved card</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.02 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//legend[normalize-space(@class) = 'legend']}</t>
+  </si>
+  <si>
+    <t>text not verified: You must first add a full billing address before you can add saved cards.</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//fieldset[normalize-space(@class) = 'fieldset payment-method stripe-new cryozonic-stripe']}</t>
+  </si>
+  <si>
+    <t>My Wish List: VerifyMyAccountMenu</t>
+  </si>
+  <si>
+    <t>text not verified: My Wish List</t>
+  </si>
+  <si>
+    <t>text not verified: You have no items in your wish list.</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=id, value=wishlist-view-form}</t>
+  </si>
+  <si>
+    <t>action set text failed: demo</t>
+  </si>
+  <si>
+    <t>action set text failed: Sangal</t>
+  </si>
+  <si>
+    <t>text not verified: demo Sangal</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.02 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=.//span[normalize-space(@class) = 'customer-name']/span}</t>
+  </si>
+  <si>
+    <t>action set text failed: Akash</t>
+  </si>
+  <si>
+    <t>action set text failed: 1234567</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=.//span[normalize-space(@class) = 'customer-name']/span}</t>
   </si>
 </sst>
 </file>
